--- a/data/trans_bre/P23_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Clase-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.255122431933474</v>
+        <v>-8.59727052549851</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.295325152397551</v>
+        <v>-9.666513126750049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.26606069786115</v>
+        <v>-12.46659985044951</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2374734135790992</v>
+        <v>-0.2503267012022358</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.255567375384065</v>
+        <v>-0.2653717460054086</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4291613214528063</v>
+        <v>-0.4261637557444994</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.821975995426444</v>
+        <v>4.821156094660303</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.753829326413307</v>
+        <v>4.510108935772745</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1588999591513587</v>
+        <v>0.1583506123198057</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1597738707716477</v>
+        <v>0.1637522857238914</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1535480905458819</v>
+        <v>0.1437540285877781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005227669709262233</v>
+        <v>0.01976063354205786</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.305923329165047</v>
+        <v>-8.195002669145428</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.060164871666028</v>
+        <v>-6.192321000326671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.476695529231048</v>
+        <v>-7.926998950436071</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2020412965840506</v>
+        <v>-0.2011443983527897</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1563171914434622</v>
+        <v>-0.1572736324544985</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2411931534979373</v>
+        <v>-0.2487547930563795</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.791260444155681</v>
+        <v>5.832262228835936</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.371609223637972</v>
+        <v>9.195651625953197</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.815719282571614</v>
+        <v>5.443928940002985</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.173983011070722</v>
+        <v>0.1797565941374624</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2796039640288029</v>
+        <v>0.2857726026840485</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2336016203271024</v>
+        <v>0.2298145595997532</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-27.07983340067073</v>
+        <v>-27.52952452708073</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.95072705459625</v>
+        <v>-17.65248909286378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.80764421485993</v>
+        <v>-18.64511405162402</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5587515239693788</v>
+        <v>-0.5688580578138687</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3916379911023483</v>
+        <v>-0.3854350532556042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4312268969989444</v>
+        <v>-0.4339089017468368</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.13215873905871</v>
+        <v>-11.64445594636577</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.850658590515171</v>
+        <v>-3.904700806543092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.102639408570058</v>
+        <v>-1.004804566493478</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.2324555474251797</v>
+        <v>-0.2600804444953958</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.0909047540061646</v>
+        <v>-0.09009491142723955</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.05385065396266488</v>
+        <v>-0.02208845102672059</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-16.03159823243424</v>
+        <v>-16.4272347894321</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.79932274569402</v>
+        <v>-10.16631478957987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.065821482319684</v>
+        <v>-4.167904126432793</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3432812216024299</v>
+        <v>-0.3517202425965562</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2403674833754555</v>
+        <v>-0.2308869675480385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1014650176941515</v>
+        <v>-0.1035009821535957</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-7.098719940160159</v>
+        <v>-7.389887949831862</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.634933215472844</v>
+        <v>-0.9677150832888141</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.113100299873055</v>
+        <v>4.70744067993</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1608624449015985</v>
+        <v>-0.1703319938029669</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.039523897145359</v>
+        <v>-0.02329739122719348</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1413506835939097</v>
+        <v>0.1311559756947529</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-28.4446449471391</v>
+        <v>-28.24372451477168</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-19.95143575797878</v>
+        <v>-20.13682008669839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.34174762223086</v>
+        <v>-15.01543231647804</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4995300062272149</v>
+        <v>-0.4910623937542966</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4347980397058931</v>
+        <v>-0.4319109156744285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3606930114981909</v>
+        <v>-0.3536307225406333</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-14.96143162418666</v>
+        <v>-14.48980935656891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.933528434301934</v>
+        <v>-8.676615943132706</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.549573792114288</v>
+        <v>-4.566625926302765</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.294625312103914</v>
+        <v>-0.293117942351986</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2265098788855686</v>
+        <v>-0.2266850370891886</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1227939979412768</v>
+        <v>-0.1248404426764185</v>
       </c>
     </row>
     <row r="19">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-21.57449342992451</v>
+        <v>-21.74893604774053</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-15.17871516593431</v>
+        <v>-15.05454792651277</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-15.59902372253878</v>
+        <v>-15.25270910228938</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6277133296912507</v>
+        <v>-0.6286617049566705</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5250833498363083</v>
+        <v>-0.5158923919119252</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4993663359396512</v>
+        <v>-0.5087492395261833</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-10.67929414917085</v>
+        <v>-10.88129018265017</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-4.204834833599061</v>
+        <v>-3.773346275945959</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-4.448437014633345</v>
+        <v>-3.969057149589439</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.4249107688650686</v>
+        <v>-0.4287125805549235</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2085616457826125</v>
+        <v>-0.1901145418629748</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1913675726478031</v>
+        <v>-0.1851750681068018</v>
       </c>
     </row>
     <row r="22">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-18.75752068692664</v>
+        <v>-19.12003634150306</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.62882165621862</v>
+        <v>-14.34499550324647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.99714355117382</v>
+        <v>-11.26166835001176</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.4357016671622966</v>
+        <v>-0.4394902833367415</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3561972843349653</v>
+        <v>-0.3534084138098475</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.302237131542963</v>
+        <v>-0.3107879999940698</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-14.28763378091137</v>
+        <v>-14.49366564080915</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-9.779341011829391</v>
+        <v>-9.693853571184356</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.679262342768634</v>
+        <v>-6.68687168334019</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.3500162767859016</v>
+        <v>-0.3526154160491493</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.2534062852122722</v>
+        <v>-0.2516584605757933</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1963035862012348</v>
+        <v>-0.1955371326207792</v>
       </c>
     </row>
     <row r="25">
